--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Burger" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t xml:space="preserve">Productos</t>
   </si>
@@ -120,6 +120,24 @@
     <t xml:space="preserve">Promo App – Para Compartir</t>
   </si>
   <si>
+    <t xml:space="preserve">Americana / Criolla + Papas + Gaseosa Antes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Americana / Criolla + Papas + Gaseosa Nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Big Americanas + Papas con Cheddar Antes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Big Americanas + Papas con Cheddar Nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Combos Cuarto de Libra a Elección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Combos XL a Elección</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veggie Americana</t>
   </si>
   <si>
@@ -130,6 +148,42 @@
   </si>
   <si>
     <t xml:space="preserve">Veggie Falafel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franui Chocolate con Leche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franui Chocolate Amargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papas Fritas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papas con Cheddar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papas Americanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua Mineral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaseosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quilmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stella Artois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patagonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corona</t>
   </si>
   <si>
     <t xml:space="preserve">Jamón Cocido y Queso</t>
@@ -259,11 +313,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,12 +334,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -329,16 +378,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,25 +404,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A1:D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.85"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -441,7 +489,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -456,7 +504,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -472,7 +520,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -488,7 +536,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -519,7 +567,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -535,7 +583,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="n">
@@ -566,7 +614,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="n">
@@ -582,7 +630,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -598,7 +646,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -612,7 +660,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="n">
@@ -627,7 +675,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="n">
@@ -642,7 +690,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="n">
@@ -657,7 +705,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1" t="n">
@@ -672,7 +720,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -688,7 +736,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -704,7 +752,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1" t="n">
@@ -805,59 +853,223 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1346</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1526</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>1694</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="n">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>1694</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1" t="n">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>1694</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1" t="n">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>1694</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>590</v>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -878,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,7 +1112,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1900</v>
@@ -914,7 +1126,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1900</v>
@@ -930,7 +1142,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1900</v>
@@ -946,7 +1158,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1900</v>
@@ -962,7 +1174,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1900</v>
@@ -978,7 +1190,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1900</v>
@@ -994,7 +1206,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1980</v>
@@ -1009,7 +1221,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1980</v>
@@ -1025,7 +1237,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>2100</v>
@@ -1040,7 +1252,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>2160</v>
@@ -1055,7 +1267,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>2160</v>
@@ -1070,7 +1282,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>2160</v>
@@ -1085,7 +1297,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>2160</v>
@@ -1100,7 +1312,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2160</v>
@@ -1115,7 +1327,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2100</v>
@@ -1130,7 +1342,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>2100</v>
@@ -1145,7 +1357,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2100</v>
@@ -1160,7 +1372,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>2100</v>
@@ -1175,7 +1387,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>2200</v>
@@ -1190,7 +1402,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>2260</v>
@@ -1205,7 +1417,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>940</v>
@@ -1219,7 +1431,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>940</v>
@@ -1234,7 +1446,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1300</v>
@@ -1249,7 +1461,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1680</v>
@@ -1264,7 +1476,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1900</v>
@@ -1279,7 +1491,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>1800</v>
@@ -1293,7 +1505,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1800</v>
@@ -1308,7 +1520,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>2600</v>
@@ -1323,7 +1535,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2900</v>
@@ -1338,7 +1550,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>3100</v>
@@ -1353,7 +1565,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1850</v>
@@ -1384,8 +1596,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1406,7 +1618,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2500</v>
@@ -1419,8 +1631,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>68</v>
+      <c r="A3" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2300</v>
@@ -1434,7 +1646,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2300</v>
@@ -1448,7 +1660,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1980</v>
@@ -1462,7 +1674,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1200</v>
@@ -1476,7 +1688,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>950</v>
@@ -1490,7 +1702,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>990</v>
@@ -1504,7 +1716,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>690</v>
@@ -1518,7 +1730,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1990</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -406,8 +406,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,8 +943,12 @@
       <c r="B36" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -953,8 +957,12 @@
       <c r="B37" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -963,8 +971,12 @@
       <c r="B38" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>461</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -973,8 +985,12 @@
       <c r="B39" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>579</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -983,6 +999,12 @@
       <c r="B40" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C40" s="0" t="n">
+        <v>670</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>822</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -991,6 +1013,12 @@
       <c r="B41" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C41" s="0" t="n">
+        <v>670</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>924</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -999,6 +1027,12 @@
       <c r="B42" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C42" s="0" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -1007,6 +1041,12 @@
       <c r="B43" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C43" s="0" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -1015,6 +1055,12 @@
       <c r="B44" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C44" s="0" t="n">
+        <v>1102</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1023,6 +1069,12 @@
       <c r="B45" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C45" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -1031,6 +1083,12 @@
       <c r="B46" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C46" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -1039,6 +1097,12 @@
       <c r="B47" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C47" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>466</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1047,6 +1111,12 @@
       <c r="B48" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C48" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>582</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -1055,6 +1125,12 @@
       <c r="B49" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C49" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>698</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -1063,6 +1139,12 @@
       <c r="B50" s="0" t="n">
         <v>900</v>
       </c>
+      <c r="C50" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>814</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -1070,6 +1152,12 @@
       </c>
       <c r="B51" s="0" t="n">
         <v>900</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
